--- a/examples/vpc-gen2.xlsx
+++ b/examples/vpc-gen2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/terraformer/gen2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D213053C-5F10-304A-90B6-691C231A06A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF80F909-CF16-9F40-ADCA-D1DB985B3609}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,277 +37,277 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
   <si>
+    <t>public_gateway</t>
+  </si>
+  <si>
+    <t>ipv4_cidr_block</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
+  </si>
+  <si>
+    <t>ip_version</t>
+  </si>
+  <si>
+    <t>*zone</t>
+  </si>
+  <si>
+    <t>*name</t>
+  </si>
+  <si>
+    <t>10.240.0.0/24</t>
+  </si>
+  <si>
+    <t>10.240.64.0/24</t>
+  </si>
+  <si>
+    <t>*profile</t>
+  </si>
+  <si>
+    <t>*keys</t>
+  </si>
+  <si>
+    <t>boot_volume</t>
+  </si>
+  <si>
+    <t>volumes</t>
+  </si>
+  <si>
+    <t>resource_group</t>
+  </si>
+  <si>
+    <t>user_data</t>
+  </si>
+  <si>
+    <t>isg1rule100</t>
+  </si>
+  <si>
+    <t>esg1rule200</t>
+  </si>
+  <si>
+    <t>isg2rule100</t>
+  </si>
+  <si>
+    <t>esg2rule200</t>
+  </si>
+  <si>
+    <t>*direction</t>
+  </si>
+  <si>
+    <t>*remote</t>
+  </si>
+  <si>
+    <t>total_ipv4_address_count</t>
+  </si>
+  <si>
+    <t>network_acl</t>
+  </si>
+  <si>
+    <t>inbound</t>
+  </si>
+  <si>
+    <t>outbound</t>
+  </si>
+  <si>
+    <t>Zones</t>
+  </si>
+  <si>
+    <t>Dallas 1</t>
+  </si>
+  <si>
+    <t>Dallas 2</t>
+  </si>
+  <si>
+    <t>Dallas 3</t>
+  </si>
+  <si>
+    <t>Images</t>
+  </si>
+  <si>
+    <t>bx2-2x8</t>
+  </si>
+  <si>
+    <t>bx2-16x64</t>
+  </si>
+  <si>
+    <t>mx2-8x64  </t>
+  </si>
+  <si>
+    <t>bx2-32x128</t>
+  </si>
+  <si>
+    <t>bx2-48x192</t>
+  </si>
+  <si>
+    <t>bx2-4x16</t>
+  </si>
+  <si>
+    <t>bx2-8x32</t>
+  </si>
+  <si>
+    <t>cx2-16x32</t>
+  </si>
+  <si>
+    <t>cx2-2x4</t>
+  </si>
+  <si>
+    <t>cx2-32x64</t>
+  </si>
+  <si>
+    <t>cx2-4x8</t>
+  </si>
+  <si>
+    <t>cx2-8x16</t>
+  </si>
+  <si>
+    <t>mx2-16x128</t>
+  </si>
+  <si>
+    <t>mx2-2x16</t>
+  </si>
+  <si>
+    <t>mx2-32x256</t>
+  </si>
+  <si>
+    <t>mx2-4x32</t>
+  </si>
+  <si>
+    <t>Image Profiles</t>
+  </si>
+  <si>
+    <t>Volume Profiles</t>
+  </si>
+  <si>
+    <t>3 IOPS/GB</t>
+  </si>
+  <si>
+    <t>5 IOPS/GB</t>
+  </si>
+  <si>
+    <t>10 IOPS/GB</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>CentOS 7.x - Minimal Install</t>
+  </si>
+  <si>
+    <t>Debian GNU/Linux 9.x - Minimal Install</t>
+  </si>
+  <si>
+    <t>Ubuntu Linux 18.04 LTS - Minimal Install</t>
+  </si>
+  <si>
+    <t>network_interfaces</t>
+  </si>
+  <si>
+    <t>protocol</t>
+  </si>
+  <si>
+    <t>udp:805:807</t>
+  </si>
+  <si>
+    <t>tcp:80:80</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>default_network_acl</t>
+  </si>
+  <si>
+    <t>classic_access</t>
+  </si>
+  <si>
+    <t>primary_nic_name</t>
+  </si>
+  <si>
+    <t>*primary_nic_subnet</t>
+  </si>
+  <si>
+    <t>primary_nic_security_groups</t>
+  </si>
+  <si>
+    <t>primary_nic_floating_ip</t>
+  </si>
+  <si>
+    <t>vsi1nic0</t>
+  </si>
+  <si>
+    <t>vsi2nic0</t>
+  </si>
+  <si>
+    <t>vsi3nic0</t>
+  </si>
+  <si>
+    <t>vsi4nic0</t>
+  </si>
+  <si>
+    <t>create_timeout</t>
+  </si>
+  <si>
+    <t>delete_timeout</t>
+  </si>
+  <si>
+    <t>60m</t>
+  </si>
+  <si>
+    <t>update_timeout</t>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>cidr</t>
+  </si>
+  <si>
+    <t>prefix_name</t>
+  </si>
+  <si>
+    <t>*group_name</t>
+  </si>
+  <si>
+    <t>Ubuntu Linux 16.04 LTS - Minimal Install</t>
+  </si>
+  <si>
+    <t>vsi1nic1:subnet2:sg1:fip2;vsi1nic2:subnet2:sg2</t>
+  </si>
+  <si>
+    <t>vsi1</t>
+  </si>
+  <si>
+    <t>vsi2</t>
+  </si>
+  <si>
+    <t>vsi3</t>
+  </si>
+  <si>
+    <t>vsi4</t>
+  </si>
+  <si>
+    <t>key1</t>
+  </si>
+  <si>
     <t>subnet1</t>
   </si>
   <si>
     <t>subnet2</t>
   </si>
   <si>
-    <t>public_gateway</t>
-  </si>
-  <si>
-    <t>ipv4_cidr_block</t>
-  </si>
-  <si>
-    <t>vsi1</t>
-  </si>
-  <si>
-    <t>vsi2</t>
-  </si>
-  <si>
-    <t>image</t>
-  </si>
-  <si>
-    <t>key1</t>
-  </si>
-  <si>
     <t>sg1</t>
   </si>
   <si>
     <t>sg2</t>
   </si>
   <si>
-    <t>127.0.0.1</t>
-  </si>
-  <si>
-    <t>ip_version</t>
-  </si>
-  <si>
-    <t>*zone</t>
-  </si>
-  <si>
-    <t>*name</t>
-  </si>
-  <si>
-    <t>10.240.0.0/24</t>
-  </si>
-  <si>
-    <t>10.240.64.0/24</t>
-  </si>
-  <si>
-    <t>*profile</t>
-  </si>
-  <si>
-    <t>*keys</t>
-  </si>
-  <si>
-    <t>boot_volume</t>
-  </si>
-  <si>
-    <t>volumes</t>
-  </si>
-  <si>
-    <t>resource_group</t>
-  </si>
-  <si>
-    <t>user_data</t>
-  </si>
-  <si>
-    <t>isg1rule100</t>
-  </si>
-  <si>
-    <t>esg1rule200</t>
-  </si>
-  <si>
-    <t>isg2rule100</t>
-  </si>
-  <si>
-    <t>esg2rule200</t>
-  </si>
-  <si>
-    <t>*direction</t>
-  </si>
-  <si>
-    <t>*remote</t>
-  </si>
-  <si>
-    <t>total_ipv4_address_count</t>
-  </si>
-  <si>
-    <t>network_acl</t>
-  </si>
-  <si>
-    <t>inbound</t>
-  </si>
-  <si>
-    <t>outbound</t>
-  </si>
-  <si>
-    <t>Zones</t>
-  </si>
-  <si>
-    <t>Dallas 1</t>
-  </si>
-  <si>
-    <t>Dallas 2</t>
-  </si>
-  <si>
-    <t>Dallas 3</t>
-  </si>
-  <si>
-    <t>Images</t>
-  </si>
-  <si>
-    <t>bx2-2x8</t>
-  </si>
-  <si>
-    <t>bx2-16x64</t>
-  </si>
-  <si>
-    <t>mx2-8x64  </t>
-  </si>
-  <si>
-    <t>bx2-32x128</t>
-  </si>
-  <si>
-    <t>bx2-48x192</t>
-  </si>
-  <si>
-    <t>bx2-4x16</t>
-  </si>
-  <si>
-    <t>bx2-8x32</t>
-  </si>
-  <si>
-    <t>cx2-16x32</t>
-  </si>
-  <si>
-    <t>cx2-2x4</t>
-  </si>
-  <si>
-    <t>cx2-32x64</t>
-  </si>
-  <si>
-    <t>cx2-4x8</t>
-  </si>
-  <si>
-    <t>cx2-8x16</t>
-  </si>
-  <si>
-    <t>mx2-16x128</t>
-  </si>
-  <si>
-    <t>mx2-2x16</t>
-  </si>
-  <si>
-    <t>mx2-32x256</t>
-  </si>
-  <si>
-    <t>mx2-4x32</t>
-  </si>
-  <si>
-    <t>Image Profiles</t>
-  </si>
-  <si>
-    <t>Volume Profiles</t>
-  </si>
-  <si>
-    <t>3 IOPS/GB</t>
-  </si>
-  <si>
-    <t>5 IOPS/GB</t>
-  </si>
-  <si>
-    <t>10 IOPS/GB</t>
-  </si>
-  <si>
-    <t>Custom</t>
-  </si>
-  <si>
-    <t>CentOS 7.x - Minimal Install</t>
-  </si>
-  <si>
-    <t>Debian GNU/Linux 9.x - Minimal Install</t>
-  </si>
-  <si>
-    <t>Ubuntu Linux 18.04 LTS - Minimal Install</t>
-  </si>
-  <si>
-    <t>network_interfaces</t>
-  </si>
-  <si>
-    <t>protocol</t>
-  </si>
-  <si>
-    <t>udp:805:807</t>
-  </si>
-  <si>
-    <t>tcp:80:80</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>default_network_acl</t>
-  </si>
-  <si>
-    <t>classic_access</t>
-  </si>
-  <si>
-    <t>primary_nic_name</t>
-  </si>
-  <si>
-    <t>*primary_nic_subnet</t>
-  </si>
-  <si>
-    <t>primary_nic_security_groups</t>
-  </si>
-  <si>
-    <t>primary_nic_floating_ip</t>
-  </si>
-  <si>
     <t>fip1</t>
-  </si>
-  <si>
-    <t>vsi1nic0</t>
-  </si>
-  <si>
-    <t>vsi2nic0</t>
-  </si>
-  <si>
-    <t>vsi3nic0</t>
-  </si>
-  <si>
-    <t>vsi4nic0</t>
-  </si>
-  <si>
-    <t>create_timeout</t>
-  </si>
-  <si>
-    <t>delete_timeout</t>
-  </si>
-  <si>
-    <t>60m</t>
-  </si>
-  <si>
-    <t>update_timeout</t>
-  </si>
-  <si>
-    <t>10m</t>
-  </si>
-  <si>
-    <t>zone</t>
-  </si>
-  <si>
-    <t>cidr</t>
-  </si>
-  <si>
-    <t>prefix_name</t>
-  </si>
-  <si>
-    <t>*group_name</t>
-  </si>
-  <si>
-    <t>Ubuntu Linux 16.04 LTS - Minimal Install</t>
-  </si>
-  <si>
-    <t>vsi3</t>
-  </si>
-  <si>
-    <t>vsi4</t>
-  </si>
-  <si>
-    <t>vsi1nic1:subnet2:sg1:fip2;vsi1nic2:subnet2:sg2</t>
   </si>
   <si>
     <t>pg1</t>
@@ -1622,28 +1622,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="E1" s="13" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -1690,45 +1690,45 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1737,24 +1737,24 @@
         <v>91</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1812,121 +1812,121 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="O1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
@@ -1938,29 +1938,29 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1972,29 +1972,29 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -2051,58 +2051,58 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2118,52 +2118,52 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2200,129 +2200,129 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C5" s="10" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E6" s="11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E7" s="11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E8" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E9" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E10" s="11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E11" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E12" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E13" s="11" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E14" s="11" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E15" s="11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E16" s="11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17" s="11" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/examples/vpc-gen2.xlsx
+++ b/examples/vpc-gen2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/terraformer/gen2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF80F909-CF16-9F40-ADCA-D1DB985B3609}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2B296A-9BA9-354C-994D-04D07677318F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="25600" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="vpc" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="95">
   <si>
     <t>public_gateway</t>
   </si>
@@ -70,9 +70,6 @@
     <t>*keys</t>
   </si>
   <si>
-    <t>boot_volume</t>
-  </si>
-  <si>
     <t>volumes</t>
   </si>
   <si>
@@ -314,6 +311,15 @@
   </si>
   <si>
     <t>vpc1</t>
+  </si>
+  <si>
+    <t>rg1</t>
+  </si>
+  <si>
+    <t>boot_volume_name</t>
+  </si>
+  <si>
+    <t>boot_volume_encryption</t>
   </si>
 </sst>
 </file>
@@ -479,7 +485,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="65">
+  <dxfs count="66">
     <dxf>
       <font>
         <b val="0"/>
@@ -699,6 +705,9 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1186,13 +1195,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7215B7F5-B70C-6B42-84D7-6729B99B446D}" name="Table8" displayName="Table8" ref="A1:E2" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63" tableBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7215B7F5-B70C-6B42-84D7-6729B99B446D}" name="Table8" displayName="Table8" ref="A1:E2" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" tableBorderDxfId="63">
   <autoFilter ref="A1:E2" xr:uid="{529F7172-ECCA-724F-9B2D-5A6C4B69CB3C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{887BA8C8-9946-8A42-98DF-3633CAED0C28}" name="*name" dataDxfId="61"/>
-    <tableColumn id="5" xr3:uid="{5CEDAE6E-6D63-FE4C-B1E4-8EBD674619A5}" name="default_network_acl" dataDxfId="60"/>
-    <tableColumn id="2" xr3:uid="{A41B6291-1C2E-AB41-A22B-93622DC498B2}" name="classic_access" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{59068090-0335-F44F-AEE1-D6418253AC15}" name="resource_group" dataDxfId="58"/>
+    <tableColumn id="1" xr3:uid="{887BA8C8-9946-8A42-98DF-3633CAED0C28}" name="*name" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{5CEDAE6E-6D63-FE4C-B1E4-8EBD674619A5}" name="default_network_acl" dataDxfId="61"/>
+    <tableColumn id="2" xr3:uid="{A41B6291-1C2E-AB41-A22B-93622DC498B2}" name="classic_access" dataDxfId="60"/>
+    <tableColumn id="3" xr3:uid="{59068090-0335-F44F-AEE1-D6418253AC15}" name="resource_group" dataDxfId="59"/>
     <tableColumn id="7" xr3:uid="{DF1FC027-D537-CB40-BAA8-AEAEE8D9E2C7}" name="tags"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1230,45 +1239,46 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCDECB38-C0CC-2F45-942E-905874960FA1}" name="Table82" displayName="Table82" ref="G1:I2" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56" tableBorderDxfId="55">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCDECB38-C0CC-2F45-942E-905874960FA1}" name="Table82" displayName="Table82" ref="G1:I2" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57" tableBorderDxfId="56">
   <autoFilter ref="G1:I2" xr:uid="{53320CC0-1502-AE46-960E-CBE997CAF081}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1C4F7942-E10E-D542-96E0-A5F1B09D7653}" name="prefix_name" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{50A3D194-B2D5-7C45-82AC-A5F626E3A6D1}" name="zone" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{0FA22EA8-0E5A-2348-9F40-72141DF6B401}" name="cidr" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{1C4F7942-E10E-D542-96E0-A5F1B09D7653}" name="prefix_name" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{50A3D194-B2D5-7C45-82AC-A5F626E3A6D1}" name="zone" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{0FA22EA8-0E5A-2348-9F40-72141DF6B401}" name="cidr" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{76790F31-1453-B641-9754-80A9D247EA0F}" name="Table6" displayName="Table6" ref="A1:J3" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{76790F31-1453-B641-9754-80A9D247EA0F}" name="Table6" displayName="Table6" ref="A1:J3" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="A1:J3" xr:uid="{9725F296-5A96-A949-A782-B4A2B65596C4}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{1E9E58AF-C46F-2140-86A4-81396AD00F15}" name="*name" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{D989FA97-121E-ED4E-9CA5-25D303F38C24}" name="*zone" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{9DE77DE5-F660-7D4C-BC60-2B014D5E01EB}" name="ipv4_cidr_block" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{42D706D7-A721-6D49-8189-9A181B88E99F}" name="total_ipv4_address_count" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{215941D8-E315-5044-8E51-E2FEE9B95908}" name="ip_version" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{7CE7912A-5366-5A4D-9CAD-006BE9E02B39}" name="network_acl" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{87A1EA58-5C4B-0443-A650-07ABED9C6F31}" name="public_gateway" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{718DFD83-0842-7749-8498-7034DCF9F245}" name="create_timeout" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{6E310B89-982B-B743-8106-2EEBD001DB52}" name="update_timeout" dataDxfId="41"/>
-    <tableColumn id="10" xr3:uid="{16A0C085-1B24-8740-BCEF-FC5FBADEF6C0}" name="delete_timeout" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{1E9E58AF-C46F-2140-86A4-81396AD00F15}" name="*name" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{D989FA97-121E-ED4E-9CA5-25D303F38C24}" name="*zone" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{9DE77DE5-F660-7D4C-BC60-2B014D5E01EB}" name="ipv4_cidr_block" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{42D706D7-A721-6D49-8189-9A181B88E99F}" name="total_ipv4_address_count" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{215941D8-E315-5044-8E51-E2FEE9B95908}" name="ip_version" dataDxfId="46"/>
+    <tableColumn id="6" xr3:uid="{7CE7912A-5366-5A4D-9CAD-006BE9E02B39}" name="network_acl" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{87A1EA58-5C4B-0443-A650-07ABED9C6F31}" name="public_gateway" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{718DFD83-0842-7749-8498-7034DCF9F245}" name="create_timeout" dataDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{6E310B89-982B-B743-8106-2EEBD001DB52}" name="update_timeout" dataDxfId="42"/>
+    <tableColumn id="10" xr3:uid="{16A0C085-1B24-8740-BCEF-FC5FBADEF6C0}" name="delete_timeout" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3F1E4605-7351-6A4A-9807-A10DCEAD79B7}" name="Table7" displayName="Table7" ref="A1:P5" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A1:P5" xr:uid="{4F0FA061-E3B2-AB4E-A276-92C803DED60C}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{B447E9AB-445F-0242-8396-EEAA92074797}" name="*name" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{E6843232-FC96-094F-809F-D9A2D9A3F5CB}" name="*zone" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{E7DB5053-DB66-CF46-AB33-5A411FF07264}" name="*profile" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{F65626CD-0D0E-D748-9934-00DB105BEEAC}" name="image" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{436C5517-AF19-1946-8EE7-03879E1F2944}" name="boot_volume" dataDxfId="33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3F1E4605-7351-6A4A-9807-A10DCEAD79B7}" name="Table7" displayName="Table7" ref="A1:Q5" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+  <autoFilter ref="A1:Q5" xr:uid="{4F0FA061-E3B2-AB4E-A276-92C803DED60C}"/>
+  <tableColumns count="17">
+    <tableColumn id="1" xr3:uid="{B447E9AB-445F-0242-8396-EEAA92074797}" name="*name" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{E6843232-FC96-094F-809F-D9A2D9A3F5CB}" name="*zone" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{E7DB5053-DB66-CF46-AB33-5A411FF07264}" name="*profile" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{F65626CD-0D0E-D748-9934-00DB105BEEAC}" name="image" dataDxfId="35"/>
+    <tableColumn id="14" xr3:uid="{33744194-79E2-4246-8447-14B997BE76CC}" name="boot_volume_name" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{436C5517-AF19-1946-8EE7-03879E1F2944}" name="boot_volume_encryption" dataDxfId="33"/>
     <tableColumn id="6" xr3:uid="{FFE24952-72F9-9D47-8A4B-2813BCCB260E}" name="*keys" dataDxfId="32"/>
     <tableColumn id="9" xr3:uid="{A03604D8-6E33-4249-A9DE-BF8870E3D90B}" name="primary_nic_name" dataDxfId="31"/>
     <tableColumn id="8" xr3:uid="{6BA991DA-676D-6A44-A3BB-F3F352C13290}" name="*primary_nic_subnet" dataDxfId="30"/>
@@ -1625,29 +1635,32 @@
         <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>61</v>
-      </c>
       <c r="D1" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" t="s">
         <v>92</v>
       </c>
       <c r="G2" s="14"/>
@@ -1699,33 +1712,33 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
@@ -1734,24 +1747,24 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -1796,21 +1809,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69A31708-3A2C-4ADA-B3E5-8A1B18923F2A}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="32.83203125" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" customWidth="1"/>
     <col min="7" max="8" width="20.83203125" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" customWidth="1"/>
-    <col min="12" max="15" width="15.83203125" customWidth="1"/>
+    <col min="9" max="10" width="25.83203125" customWidth="1"/>
+    <col min="11" max="11" width="22.83203125" customWidth="1"/>
+    <col min="12" max="12" width="36.83203125" customWidth="1"/>
+    <col min="13" max="15" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
@@ -1824,185 +1839,192 @@
         <v>2</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P1" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2029,7 +2051,7 @@
           <x14:formula1>
             <xm:f>menus!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D5</xm:sqref>
+          <xm:sqref>D2:E5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2054,55 +2076,55 @@
         <v>6</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -2121,30 +2143,30 @@
         <v>6</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
@@ -2152,15 +2174,15 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="G6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -2200,129 +2222,129 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
         <v>46</v>
-      </c>
-      <c r="G1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C5" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E6" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E7" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E8" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E9" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E10" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E11" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E12" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E13" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E14" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E15" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E16" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E17" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/examples/vpc-gen2.xlsx
+++ b/examples/vpc-gen2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/terraformer/gen2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2B296A-9BA9-354C-994D-04D07677318F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E8AEC9-A805-7840-AE17-207810468F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/examples/vpc-gen2.xlsx
+++ b/examples/vpc-gen2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jww/Developer/python/terraformer/gen2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E8AEC9-A805-7840-AE17-207810468F19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532CD237-830E-D047-8E93-2E2CB38F4687}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,9 @@
     <sheet name="vpc" sheetId="6" r:id="rId1"/>
     <sheet name="subnets" sheetId="26" r:id="rId2"/>
     <sheet name="instances" sheetId="27" r:id="rId3"/>
-    <sheet name="securitygroups" sheetId="4" r:id="rId4"/>
-    <sheet name="menus" sheetId="48" r:id="rId5"/>
+    <sheet name="volumes" sheetId="49" r:id="rId4"/>
+    <sheet name="securitygroups" sheetId="4" r:id="rId5"/>
+    <sheet name="menus" sheetId="48" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="100">
   <si>
     <t>public_gateway</t>
   </si>
@@ -320,6 +321,21 @@
   </si>
   <si>
     <t>boot_volume_encryption</t>
+  </si>
+  <si>
+    <t>iops</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>encryption_key</t>
+  </si>
+  <si>
+    <t>resource_controller_url</t>
+  </si>
+  <si>
+    <t>volume1</t>
   </si>
 </sst>
 </file>
@@ -458,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -481,11 +497,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="78">
     <dxf>
       <font>
         <b val="0"/>
@@ -705,6 +724,48 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1195,13 +1256,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7215B7F5-B70C-6B42-84D7-6729B99B446D}" name="Table8" displayName="Table8" ref="A1:E2" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" tableBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{7215B7F5-B70C-6B42-84D7-6729B99B446D}" name="Table8" displayName="Table8" ref="A1:E2" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76" tableBorderDxfId="75">
   <autoFilter ref="A1:E2" xr:uid="{529F7172-ECCA-724F-9B2D-5A6C4B69CB3C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{887BA8C8-9946-8A42-98DF-3633CAED0C28}" name="*name" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{5CEDAE6E-6D63-FE4C-B1E4-8EBD674619A5}" name="default_network_acl" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{A41B6291-1C2E-AB41-A22B-93622DC498B2}" name="classic_access" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{59068090-0335-F44F-AEE1-D6418253AC15}" name="resource_group" dataDxfId="59"/>
+    <tableColumn id="1" xr3:uid="{887BA8C8-9946-8A42-98DF-3633CAED0C28}" name="*name" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{5CEDAE6E-6D63-FE4C-B1E4-8EBD674619A5}" name="default_network_acl" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{A41B6291-1C2E-AB41-A22B-93622DC498B2}" name="classic_access" dataDxfId="72"/>
+    <tableColumn id="3" xr3:uid="{59068090-0335-F44F-AEE1-D6418253AC15}" name="resource_group" dataDxfId="71"/>
     <tableColumn id="7" xr3:uid="{DF1FC027-D537-CB40-BAA8-AEAEE8D9E2C7}" name="tags"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1209,6 +1270,16 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{97CF9BAD-1C51-BC47-AAC0-E356346EDEA4}" name="Table4" displayName="Table4" ref="A1:A4" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:A4" xr:uid="{54D2B8C5-8B4B-6F48-ADDA-4AB0A92EEEC3}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{754440C3-162E-F748-AF02-EFAEF0209370}" name="Zones"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{67A187D0-9C64-1D4D-B7B0-8EEEA34740FA}" name="Table9" displayName="Table9" ref="C1:C5" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="C1:C5" xr:uid="{993A4077-8AAD-BA41-8838-666C07171DFB}"/>
   <tableColumns count="1">
@@ -1218,7 +1289,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3386D107-B446-064C-A163-0DCBF02D35DE}" name="Table10" displayName="Table10" ref="E1:E17" totalsRowShown="0" dataDxfId="1">
   <autoFilter ref="E1:E17" xr:uid="{3F6979D3-3BD1-E54D-A901-4B051BF78ECD}"/>
   <tableColumns count="1">
@@ -1228,7 +1299,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{A9FFA773-1002-C74D-ACF1-C3340783F0C1}" name="Table12" displayName="Table12" ref="G1:G5" totalsRowShown="0">
   <autoFilter ref="G1:G5" xr:uid="{CD560E84-DE1D-1B4A-9E17-CAB68CB40AB3}"/>
   <tableColumns count="1">
@@ -1239,63 +1310,82 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCDECB38-C0CC-2F45-942E-905874960FA1}" name="Table82" displayName="Table82" ref="G1:I2" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57" tableBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CCDECB38-C0CC-2F45-942E-905874960FA1}" name="Table82" displayName="Table82" ref="G1:I2" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69" tableBorderDxfId="68">
   <autoFilter ref="G1:I2" xr:uid="{53320CC0-1502-AE46-960E-CBE997CAF081}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1C4F7942-E10E-D542-96E0-A5F1B09D7653}" name="prefix_name" dataDxfId="55"/>
-    <tableColumn id="5" xr3:uid="{50A3D194-B2D5-7C45-82AC-A5F626E3A6D1}" name="zone" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{0FA22EA8-0E5A-2348-9F40-72141DF6B401}" name="cidr" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{1C4F7942-E10E-D542-96E0-A5F1B09D7653}" name="prefix_name" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{50A3D194-B2D5-7C45-82AC-A5F626E3A6D1}" name="zone" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{0FA22EA8-0E5A-2348-9F40-72141DF6B401}" name="cidr" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{76790F31-1453-B641-9754-80A9D247EA0F}" name="Table6" displayName="Table6" ref="A1:J3" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{76790F31-1453-B641-9754-80A9D247EA0F}" name="Table6" displayName="Table6" ref="A1:J3" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
   <autoFilter ref="A1:J3" xr:uid="{9725F296-5A96-A949-A782-B4A2B65596C4}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{1E9E58AF-C46F-2140-86A4-81396AD00F15}" name="*name" dataDxfId="50"/>
-    <tableColumn id="2" xr3:uid="{D989FA97-121E-ED4E-9CA5-25D303F38C24}" name="*zone" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{9DE77DE5-F660-7D4C-BC60-2B014D5E01EB}" name="ipv4_cidr_block" dataDxfId="48"/>
-    <tableColumn id="4" xr3:uid="{42D706D7-A721-6D49-8189-9A181B88E99F}" name="total_ipv4_address_count" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{215941D8-E315-5044-8E51-E2FEE9B95908}" name="ip_version" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{7CE7912A-5366-5A4D-9CAD-006BE9E02B39}" name="network_acl" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{87A1EA58-5C4B-0443-A650-07ABED9C6F31}" name="public_gateway" dataDxfId="44"/>
-    <tableColumn id="8" xr3:uid="{718DFD83-0842-7749-8498-7034DCF9F245}" name="create_timeout" dataDxfId="43"/>
-    <tableColumn id="9" xr3:uid="{6E310B89-982B-B743-8106-2EEBD001DB52}" name="update_timeout" dataDxfId="42"/>
-    <tableColumn id="10" xr3:uid="{16A0C085-1B24-8740-BCEF-FC5FBADEF6C0}" name="delete_timeout" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{1E9E58AF-C46F-2140-86A4-81396AD00F15}" name="*name" dataDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{D989FA97-121E-ED4E-9CA5-25D303F38C24}" name="*zone" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{9DE77DE5-F660-7D4C-BC60-2B014D5E01EB}" name="ipv4_cidr_block" dataDxfId="60"/>
+    <tableColumn id="4" xr3:uid="{42D706D7-A721-6D49-8189-9A181B88E99F}" name="total_ipv4_address_count" dataDxfId="59"/>
+    <tableColumn id="5" xr3:uid="{215941D8-E315-5044-8E51-E2FEE9B95908}" name="ip_version" dataDxfId="58"/>
+    <tableColumn id="6" xr3:uid="{7CE7912A-5366-5A4D-9CAD-006BE9E02B39}" name="network_acl" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{87A1EA58-5C4B-0443-A650-07ABED9C6F31}" name="public_gateway" dataDxfId="56"/>
+    <tableColumn id="8" xr3:uid="{718DFD83-0842-7749-8498-7034DCF9F245}" name="create_timeout" dataDxfId="55"/>
+    <tableColumn id="9" xr3:uid="{6E310B89-982B-B743-8106-2EEBD001DB52}" name="update_timeout" dataDxfId="54"/>
+    <tableColumn id="10" xr3:uid="{16A0C085-1B24-8740-BCEF-FC5FBADEF6C0}" name="delete_timeout" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3F1E4605-7351-6A4A-9807-A10DCEAD79B7}" name="Table7" displayName="Table7" ref="A1:Q5" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{3F1E4605-7351-6A4A-9807-A10DCEAD79B7}" name="Table7" displayName="Table7" ref="A1:Q5" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="A1:Q5" xr:uid="{4F0FA061-E3B2-AB4E-A276-92C803DED60C}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{B447E9AB-445F-0242-8396-EEAA92074797}" name="*name" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{E6843232-FC96-094F-809F-D9A2D9A3F5CB}" name="*zone" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{E7DB5053-DB66-CF46-AB33-5A411FF07264}" name="*profile" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{F65626CD-0D0E-D748-9934-00DB105BEEAC}" name="image" dataDxfId="35"/>
-    <tableColumn id="14" xr3:uid="{33744194-79E2-4246-8447-14B997BE76CC}" name="boot_volume_name" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{436C5517-AF19-1946-8EE7-03879E1F2944}" name="boot_volume_encryption" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{FFE24952-72F9-9D47-8A4B-2813BCCB260E}" name="*keys" dataDxfId="32"/>
-    <tableColumn id="9" xr3:uid="{A03604D8-6E33-4249-A9DE-BF8870E3D90B}" name="primary_nic_name" dataDxfId="31"/>
-    <tableColumn id="8" xr3:uid="{6BA991DA-676D-6A44-A3BB-F3F352C13290}" name="*primary_nic_subnet" dataDxfId="30"/>
-    <tableColumn id="11" xr3:uid="{22D3C3E8-9B81-9940-8B5C-FAB6544821B0}" name="primary_nic_security_groups" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{2843B70D-AC9D-5445-BD32-4CFA71397925}" name="primary_nic_floating_ip" dataDxfId="28"/>
-    <tableColumn id="10" xr3:uid="{438F95E2-E2D5-1E49-9852-4B915078693E}" name="network_interfaces" dataDxfId="27"/>
-    <tableColumn id="19" xr3:uid="{6293540A-4A05-0E4A-99ED-C75D3F46ECCF}" name="volumes" dataDxfId="26"/>
-    <tableColumn id="18" xr3:uid="{8C2D6431-BD15-6849-BBE1-C0EF1B26E51A}" name="user_data" dataDxfId="25"/>
-    <tableColumn id="17" xr3:uid="{8C7E9F80-830B-174D-9411-54916978023E}" name="resource_group" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{E2511928-0801-3546-B6BA-F9C8EF98BBC6}" name="create_timeout" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{F33A3F16-B62A-EC4B-BC5D-BAA56655B743}" name="delete_timeout" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{B447E9AB-445F-0242-8396-EEAA92074797}" name="*name" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{E6843232-FC96-094F-809F-D9A2D9A3F5CB}" name="*zone" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{E7DB5053-DB66-CF46-AB33-5A411FF07264}" name="*profile" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{F65626CD-0D0E-D748-9934-00DB105BEEAC}" name="image" dataDxfId="47"/>
+    <tableColumn id="14" xr3:uid="{33744194-79E2-4246-8447-14B997BE76CC}" name="boot_volume_name" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{436C5517-AF19-1946-8EE7-03879E1F2944}" name="boot_volume_encryption" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{FFE24952-72F9-9D47-8A4B-2813BCCB260E}" name="*keys" dataDxfId="44"/>
+    <tableColumn id="9" xr3:uid="{A03604D8-6E33-4249-A9DE-BF8870E3D90B}" name="primary_nic_name" dataDxfId="43"/>
+    <tableColumn id="8" xr3:uid="{6BA991DA-676D-6A44-A3BB-F3F352C13290}" name="*primary_nic_subnet" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{22D3C3E8-9B81-9940-8B5C-FAB6544821B0}" name="primary_nic_security_groups" dataDxfId="41"/>
+    <tableColumn id="7" xr3:uid="{2843B70D-AC9D-5445-BD32-4CFA71397925}" name="primary_nic_floating_ip" dataDxfId="40"/>
+    <tableColumn id="10" xr3:uid="{438F95E2-E2D5-1E49-9852-4B915078693E}" name="network_interfaces" dataDxfId="39"/>
+    <tableColumn id="19" xr3:uid="{6293540A-4A05-0E4A-99ED-C75D3F46ECCF}" name="volumes" dataDxfId="38"/>
+    <tableColumn id="18" xr3:uid="{8C2D6431-BD15-6849-BBE1-C0EF1B26E51A}" name="user_data" dataDxfId="37"/>
+    <tableColumn id="17" xr3:uid="{8C7E9F80-830B-174D-9411-54916978023E}" name="resource_group" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{E2511928-0801-3546-B6BA-F9C8EF98BBC6}" name="create_timeout" dataDxfId="35"/>
+    <tableColumn id="13" xr3:uid="{F33A3F16-B62A-EC4B-BC5D-BAA56655B743}" name="delete_timeout" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{02F6FBAA-C239-B74F-A8FA-8FD82AB6EC44}" name="Table11" displayName="Table11" ref="A1:J2" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A1:J2" xr:uid="{8CD156A6-A66F-1245-BCD2-9FAE26A0A77C}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{6414AA28-FF89-8548-857D-48C513340D59}" name="*name" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{43893A98-F4D1-EB47-B5F7-32FC1F70D2AA}" name="*zone" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{AF9B7C37-E453-134A-992C-498C04B9C3F3}" name="*profile" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{4341102E-2EF6-5341-AA8B-47722CD0DB73}" name="iops" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{514F25F8-716B-324A-A62A-442A76B56DA2}" name="capacity" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{EBFAFB98-5EE7-544B-9703-24CAFCA08176}" name="encryption_key" dataDxfId="26"/>
+    <tableColumn id="7" xr3:uid="{A4132B95-8E4F-A545-BB7D-23D8DE2E88A0}" name="resource_group" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{6C509F71-F3DE-0444-9097-7322E925420F}" name="resource_controller_url" dataDxfId="24"/>
+    <tableColumn id="9" xr3:uid="{1599A2CA-DC99-724F-B8D7-4DBCB0E2C8FA}" name="create_timeout" dataDxfId="23"/>
+    <tableColumn id="10" xr3:uid="{777FF515-5C03-4A48-9E52-A4DCD88A6D0F}" name="delete_timeout" dataDxfId="22"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{39E22F0D-DB3D-D64A-9C8B-1495DF50EA1D}" name="Table17" displayName="Table17" ref="G1:H2" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="G1:H2" xr:uid="{0A45E2CD-E273-B845-A6DC-901E2232E6DB}"/>
   <tableColumns count="2">
@@ -1306,7 +1396,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{D1930FB6-6EF2-5A4F-A1C5-080C14D74B21}" name="Table18" displayName="Table18" ref="A1:E3" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:E3" xr:uid="{EF08DB4E-0002-F047-8599-404D4BBF8940}"/>
   <tableColumns count="5">
@@ -1320,7 +1410,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{F21DE6D8-0A5C-3145-9A2B-E1F2A8034E09}" name="Table1719" displayName="Table1719" ref="G5:H6" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="G5:H6" xr:uid="{BA698B73-1CD9-D447-9915-33C13C4FA98F}"/>
   <tableColumns count="2">
@@ -1331,7 +1421,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{5B120329-69CE-CF49-A040-777791D90941}" name="Table1820" displayName="Table1820" ref="A5:E7" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A5:E7" xr:uid="{53EED686-95D2-F943-A81D-E27A130C6DAE}"/>
   <tableColumns count="5">
@@ -1342,16 +1432,6 @@
     <tableColumn id="10" xr3:uid="{8441EF0D-136D-E04F-8477-CE05C3A24F8E}" name="protocol" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{97CF9BAD-1C51-BC47-AAC0-E356346EDEA4}" name="Table4" displayName="Table4" ref="A1:A4" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:A4" xr:uid="{54D2B8C5-8B4B-6F48-ADDA-4AB0A92EEEC3}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{754440C3-162E-F748-AF02-EFAEF0209370}" name="Zones"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1911,7 +1991,9 @@
       <c r="L2" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="M2" s="1"/>
+      <c r="M2" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
@@ -2060,6 +2142,122 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99BB046D-D9DC-FF49-93B0-7C551E9BBBFB}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{DE8BEE18-DF00-CC4B-A90E-A041BCB4390C}">
+      <formula1>10</formula1>
+      <formula2>2000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2" xr:uid="{6E935E0C-B4ED-9C4E-B151-C963445A8A43}">
+      <formula1>100</formula1>
+      <formula2>20000</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3F5173B7-D884-8741-9374-2482898ACF75}">
+          <x14:formula1>
+            <xm:f>menus!$A$2:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F8FF830F-80F8-804A-BF60-A3A7BCAD302C}">
+          <x14:formula1>
+            <xm:f>menus!$G$2:$G$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -2202,12 +2400,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27DA9FB-C6DE-DD43-83A1-C14B1BF5FE4D}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G2" sqref="G1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
